--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_NAR_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_NAR_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-72.1329</v>
+        <v>-71.3861</v>
       </c>
       <c r="B2" t="n">
-        <v>-71.4297</v>
+        <v>-71.3798</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41.0106</v>
+        <v>41.562</v>
       </c>
       <c r="B3" t="n">
-        <v>41.6921</v>
+        <v>41.5666</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-70.5376</v>
+        <v>-71.2835</v>
       </c>
       <c r="B4" t="n">
-        <v>-71.234</v>
+        <v>-71.2898</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42.2371</v>
+        <v>41.6852</v>
       </c>
       <c r="B5" t="n">
-        <v>41.5738</v>
+        <v>41.6805</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_NAR_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_NAR_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-71.3861</v>
+        <v>-71.4413</v>
       </c>
       <c r="B2" t="n">
-        <v>-71.3798</v>
+        <v>-71.4183</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41.562</v>
+        <v>41.5441</v>
       </c>
       <c r="B3" t="n">
-        <v>41.5666</v>
+        <v>41.5612</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-71.2835</v>
+        <v>-71.2229</v>
       </c>
       <c r="B4" t="n">
-        <v>-71.2898</v>
+        <v>-71.246</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41.6852</v>
+        <v>41.7055</v>
       </c>
       <c r="B5" t="n">
-        <v>41.6805</v>
+        <v>41.6885</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>
